--- a/biology/Botanique/Morus_indica/Morus_indica.xlsx
+++ b/biology/Botanique/Morus_indica/Morus_indica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Morus indica est une espèce de plantes dicotylédones de la famille des Moraceae, originaire du piémont himalayen. Ce sont de petits arbres à feuilles caduques cultivés pour leurs fruits et leurs feuilles ainsi qu'en agroforesterie. L'espèce est monoïque (inflorescences mâles et femelles distinctes sur la même plante).
 </t>
@@ -513,22 +525,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon BioLib                    (23 juin 2019)[2] :
-Morus acidosa Griff.[3]
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 juin 2019) :
+Morus acidosa Griff.
 Morus alba f. tatarica Ser.
 Morus alba var. constantinopolitana Loudon
 Morus alba var. multicaulis (Perr.) Loudon
 Morus alba var. tatarica (L.) Ser.
-Morus alba (L.) Bureau[3]
+Morus alba (L.) Bureau
 Morus alba L.
-Morus australis Poir. (préféré par GRIN)[3]
-Morus bombycis Koidz.[3]
+Morus australis Poir. (préféré par GRIN)
+Morus bombycis Koidz.
 Morus indica L.
 Morus multicaulis Perr.
 Morus tatarica L.
-Liste des non-classés
-Selon BioLib                    (23 juin 2019)[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Morus_indica</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Morus_indica</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des non-classés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (23 juin 2019) :
 Morus alba 'Pendula'
 </t>
         </is>
